--- a/downloaded_files/SBES435_Tutorial-35491.xlsx
+++ b/downloaded_files/SBES435_Tutorial-35491.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,42 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1220039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>باسل بهاء السيد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Basel Bahaa Alsayed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210098</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جمانه احمد محمد عبد العزيز العشرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jumana Ahmed Mohamed El-Ashry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حمزه احمد هاشم حموده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamza ahmaed hashem hamouda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رنا ياسر محمد صبري الباجا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rana Yasser Mohamed Sabry El Baga</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210351</x:t>
   </x:si>
   <x:si>
@@ -78,6 +114,15 @@
     <x:t>seif mohamed sayed hashem</x:t>
   </x:si>
   <x:si>
+    <x:t>1210244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف هشام عبد العزيز عطيه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saif Hesham Abdelaziz Attia</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210366</x:t>
   </x:si>
   <x:si>
@@ -87,15 +132,6 @@
     <x:t>SHEHAP TAREK HELMY ELHADARY</x:t>
   </x:si>
   <x:si>
-    <x:t>1210246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>طارق وليد فتحي محمد عارف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tarek Waleed Fathy Mohamed Aref</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210148</x:t>
   </x:si>
   <x:si>
@@ -105,6 +141,15 @@
     <x:t>Abdelrahman Hesham Zakaria Abdelmoomen Salem</x:t>
   </x:si>
   <x:si>
+    <x:t>1210106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد محمد رفعت السيد حريشه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar ahmed mohamed refaat el sayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4220130</x:t>
   </x:si>
   <x:si>
@@ -141,22 +186,13 @@
     <x:t>Omar Walid Mohamed Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو ياسر سيد محمود دومة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amr Yasser Sayed Mahmoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فرح احمد كمال حامد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farah Ahmed Kamal Hamed</x:t>
+    <x:t>1210271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو احمد صفوت احمد عبد المولى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMROU AHMED SAFWAT AHMED ABDELMAWLA</x:t>
   </x:si>
   <x:si>
     <x:t>1210287</x:t>
@@ -195,6 +231,24 @@
     <x:t>Mohammad Tamer Mostafa Alsaid Abualfadl</x:t>
   </x:si>
   <x:si>
+    <x:t>1210294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود عمرو محمد عدلى عبد الحليم رسلان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Amr Mohamed Adly Abdel-Halim Raslan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود محمد محمود نصر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud mohammed mahmoud nasr</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220315</x:t>
   </x:si>
   <x:si>
@@ -204,15 +258,6 @@
     <x:t>Maryam Mohamed Ali Soliman Aitah</x:t>
   </x:si>
   <x:si>
-    <x:t>1220105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>منه الله نبيل عبد العظيم المتولى سيد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mennat Allah Nabil Abdel Azim El/Metwally</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220321</x:t>
   </x:si>
   <x:si>
@@ -258,15 +303,6 @@
     <x:t>Hana Ahmed Ebrahim Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يحيي زكريا فوزي أحمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yehia Zakria Fawzi Ahmed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210329</x:t>
   </x:si>
   <x:si>
@@ -276,13 +312,13 @@
     <x:t>YOUSRA HATEM MAHROUS ABDELWAHAB</x:t>
   </x:si>
   <x:si>
-    <x:t>1210168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف احمد محمد عوض حسن اللقانى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yousef ahmed mohamed awad hassan ellakany</x:t>
+    <x:t>1190292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف رأفت فتحى محمد حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Rafaat fathey mohamed Hussien</x:t>
   </x:si>
   <x:si>
     <x:t>1220090</x:t>
@@ -425,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -735,7 +771,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.100625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.810625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -816,7 +852,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.6648645833</x:v>
+        <x:v>45927.4209861111</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -848,7 +884,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.4146853009</x:v>
+        <x:v>45927.4152337616</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -880,7 +916,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6864604514</x:v>
+        <x:v>45927.4143818634</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -912,7 +948,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6732258102</x:v>
+        <x:v>45927.4161042824</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -944,7 +980,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.666074919</x:v>
+        <x:v>45906.6648645833</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -976,7 +1012,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4146051273</x:v>
+        <x:v>45906.4146853009</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1008,7 +1044,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.420550463</x:v>
+        <x:v>45906.6864604514</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1040,7 +1076,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6654144329</x:v>
+        <x:v>45906.6732258102</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1072,7 +1108,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4147752315</x:v>
+        <x:v>45906.666074919</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1104,7 +1140,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6659766204</x:v>
+        <x:v>45927.4175393519</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1136,7 +1172,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6677939815</x:v>
+        <x:v>45906.4146051273</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1168,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.669274456</x:v>
+        <x:v>45906.6654144329</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1200,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4194109954</x:v>
+        <x:v>45927.4242024306</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1232,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6658774306</x:v>
+        <x:v>45906.4147752315</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1264,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45906.6659766204</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1296,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6813268519</x:v>
+        <x:v>45906.6677939815</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1328,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.666153669</x:v>
+        <x:v>45906.669274456</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1360,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45927.4151749653</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1392,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4201900463</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4145929051</x:v>
+        <x:v>45906.6813268519</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4148210301</x:v>
+        <x:v>45906.666153669</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4145290509</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.667694213</x:v>
+        <x:v>45927.4526119213</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4349585301</x:v>
+        <x:v>45927.4149894676</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6829680556</x:v>
+        <x:v>45907.4201900463</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.2910077894</x:v>
+        <x:v>45907.4148210301</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6657106829</x:v>
+        <x:v>45927.4383224537</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4208004282</x:v>
+        <x:v>45906.667694213</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6649812153</x:v>
+        <x:v>45906.4349585301</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45906.6829680556</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1776,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.3042951389</x:v>
+        <x:v>45906.6657106829</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1794,6 +1830,134 @@
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
     </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45927.4796646181</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45906.6649812153</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45906.4157806366</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45912.3042951389</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1806,6 +1970,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Internet of Medical Things (IoMT) (SBES435) Location : [18201]18201-45-الجيزة الرئيسي Time : Wednesday(14:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/SBES435_Tutorial-35491.xlsx
+++ b/downloaded_files/SBES435_Tutorial-35491.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>باسل أحمد حماد الشحات</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bassel ahmed hammad el shahat</x:t>
   </x:si>
   <x:si>
     <x:t>1220039</x:t>
@@ -461,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -852,7 +861,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45927.4209861111</x:v>
+        <x:v>45927.8613143519</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -884,7 +893,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45927.4152337616</x:v>
+        <x:v>45927.4209861111</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -916,7 +925,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.4143818634</x:v>
+        <x:v>45927.4152337616</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -948,7 +957,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4161042824</x:v>
+        <x:v>45927.4143818634</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -980,7 +989,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6648645833</x:v>
+        <x:v>45927.4161042824</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1012,7 +1021,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4146853009</x:v>
+        <x:v>45906.6648645833</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1044,7 +1053,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6864604514</x:v>
+        <x:v>45906.4146853009</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1076,7 +1085,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6732258102</x:v>
+        <x:v>45906.6864604514</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1108,7 +1117,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.666074919</x:v>
+        <x:v>45906.6732258102</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1140,7 +1149,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4175393519</x:v>
+        <x:v>45906.666074919</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1172,7 +1181,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4146051273</x:v>
+        <x:v>45927.4175393519</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1204,7 +1213,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6654144329</x:v>
+        <x:v>45906.4146051273</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1236,7 +1245,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4242024306</x:v>
+        <x:v>45906.6654144329</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1268,7 +1277,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4147752315</x:v>
+        <x:v>45927.4242024306</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1300,7 +1309,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6659766204</x:v>
+        <x:v>45906.4147752315</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1332,7 +1341,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6677939815</x:v>
+        <x:v>45906.6659766204</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1364,7 +1373,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.669274456</x:v>
+        <x:v>45906.6677939815</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1396,7 +1405,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4151749653</x:v>
+        <x:v>45906.669274456</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1428,7 +1437,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45927.4151749653</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1460,7 +1469,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6813268519</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1492,7 +1501,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.666153669</x:v>
+        <x:v>45906.6813268519</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1533,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45906.666153669</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1565,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4526119213</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1597,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4149894676</x:v>
+        <x:v>45927.4526119213</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4201900463</x:v>
+        <x:v>45927.4149894676</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4148210301</x:v>
+        <x:v>45907.4201900463</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4383224537</x:v>
+        <x:v>45907.4148210301</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.667694213</x:v>
+        <x:v>45927.4383224537</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4349585301</x:v>
+        <x:v>45906.667694213</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6829680556</x:v>
+        <x:v>45906.4349585301</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6657106829</x:v>
+        <x:v>45906.6829680556</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45927.4796646181</x:v>
+        <x:v>45906.6657106829</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6649812153</x:v>
+        <x:v>45927.4796646181</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45906.6649812153</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1940,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.3042951389</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1957,6 +1966,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45912.3042951389</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES435_Tutorial-35491.xlsx
+++ b/downloaded_files/SBES435_Tutorial-35491.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>omar sameh ramadan ali mansour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200209</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عماد الدين عبد الحميد فرج جاهين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar emad eldin abdelhamid farag gahen</x:t>
   </x:si>
   <x:si>
     <x:t>1200424</x:t>
@@ -470,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1373,7 +1382,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6677939815</x:v>
+        <x:v>45928.4153455208</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1405,7 +1414,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.669274456</x:v>
+        <x:v>45906.6677939815</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1437,7 +1446,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4151749653</x:v>
+        <x:v>45906.669274456</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1469,7 +1478,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45927.4151749653</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1501,7 +1510,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6813268519</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1533,7 +1542,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.666153669</x:v>
+        <x:v>45906.6813268519</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1565,7 +1574,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45906.666153669</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1597,7 +1606,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4526119213</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1629,7 +1638,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.4149894676</x:v>
+        <x:v>45927.4526119213</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1670,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4201900463</x:v>
+        <x:v>45927.4149894676</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4148210301</x:v>
+        <x:v>45907.4201900463</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4383224537</x:v>
+        <x:v>45907.4148210301</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.667694213</x:v>
+        <x:v>45927.4383224537</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4349585301</x:v>
+        <x:v>45906.667694213</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6829680556</x:v>
+        <x:v>45906.4349585301</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6657106829</x:v>
+        <x:v>45906.6829680556</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1894,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45927.4796646181</x:v>
+        <x:v>45906.6657106829</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1926,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6649812153</x:v>
+        <x:v>45927.4796646181</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1958,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45906.6649812153</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1981,7 +1990,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.3042951389</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1998,6 +2007,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45912.3042951389</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES435_Tutorial-35491.xlsx
+++ b/downloaded_files/SBES435_Tutorial-35491.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Omar ahmed mohamed refaat el sayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر خالد سيف الله محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omr Khaled Seif Allah Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210107</x:t>
@@ -479,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1318,7 +1309,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4147752315</x:v>
+        <x:v>45906.6659766204</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1350,7 +1341,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6659766204</x:v>
+        <x:v>45928.4153455208</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1382,7 +1373,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45928.4153455208</x:v>
+        <x:v>45906.6677939815</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1414,7 +1405,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6677939815</x:v>
+        <x:v>45906.669274456</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1446,7 +1437,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.669274456</x:v>
+        <x:v>45927.4151749653</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1478,7 +1469,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4151749653</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1510,7 +1501,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45906.6813268519</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1542,7 +1533,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6813268519</x:v>
+        <x:v>45906.666153669</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1574,7 +1565,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.666153669</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1606,7 +1597,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45927.4526119213</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1638,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.4526119213</x:v>
+        <x:v>45927.4149894676</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1670,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4149894676</x:v>
+        <x:v>45907.4201900463</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1702,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4201900463</x:v>
+        <x:v>45907.4148210301</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1734,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4148210301</x:v>
+        <x:v>45927.4383224537</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1766,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.4383224537</x:v>
+        <x:v>45906.667694213</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1798,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.667694213</x:v>
+        <x:v>45906.4349585301</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1830,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4349585301</x:v>
+        <x:v>45906.6829680556</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1862,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6829680556</x:v>
+        <x:v>45906.6657106829</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1894,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6657106829</x:v>
+        <x:v>45927.4796646181</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1926,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45927.4796646181</x:v>
+        <x:v>45906.6649812153</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1958,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6649812153</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1981,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45912.3042951389</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2007,38 +1998,6 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45912.3042951389</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES435_Tutorial-35491.xlsx
+++ b/downloaded_files/SBES435_Tutorial-35491.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -328,15 +328,6 @@
   </x:si>
   <x:si>
     <x:t>Yousef Rafaat fathey mohamed Hussien</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220090</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف عصام عبدالمنعم احمد منسي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>youssef essam abdel monaem ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1200320</x:t>
@@ -470,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1917,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6649812153</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1940,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45912.3042951389</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1966,38 +1957,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45912.3042951389</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES435_Tutorial-35491.xlsx
+++ b/downloaded_files/SBES435_Tutorial-35491.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -301,6 +301,15 @@
   </x:si>
   <x:si>
     <x:t>Nouran Mohamed Adelrhman Aboud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210359</x:t>
+  </x:si>
+  <x:si>
+    <x:t>همسه صابر عبدالرازق ابوخطوة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamsa Saber Abdulrazek Abokhatwa</x:t>
   </x:si>
   <x:si>
     <x:t>1210120</x:t>
@@ -461,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1812,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6829680556</x:v>
+        <x:v>45937.4599945949</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6657106829</x:v>
+        <x:v>45906.6829680556</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45927.4796646181</x:v>
+        <x:v>45906.6657106829</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45927.4796646181</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1940,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.3042951389</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1957,6 +1966,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45912.3042951389</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
